--- a/in-progress/Mortezaei_2011_CompSciTech/SUBMISSION/S7/S7_lossmod.xlsx
+++ b/in-progress/Mortezaei_2011_CompSciTech/SUBMISSION/S7/S7_lossmod.xlsx
@@ -14,216 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Temperature (Celsius)</t>
   </si>
   <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>94.1007917383821</t>
-  </si>
-  <si>
-    <t>95.37514629948365</t>
-  </si>
-  <si>
-    <t>96.30967297762479</t>
-  </si>
-  <si>
-    <t>97.41411359724613</t>
-  </si>
-  <si>
-    <t>98.51855421686747</t>
-  </si>
-  <si>
-    <t>99.5380378657487</t>
-  </si>
-  <si>
-    <t>100.81239242685027</t>
-  </si>
-  <si>
-    <t>102.42657487091222</t>
-  </si>
-  <si>
-    <t>104.2956282271945</t>
-  </si>
-  <si>
-    <t>106.16468158347676</t>
-  </si>
-  <si>
-    <t>107.86382099827883</t>
-  </si>
-  <si>
-    <t>109.5629604130809</t>
-  </si>
-  <si>
-    <t>111.02846815834766</t>
-  </si>
-  <si>
-    <t>112.51946299483649</t>
-  </si>
-  <si>
-    <t>114.28656798623064</t>
-  </si>
-  <si>
-    <t>115.84977624784852</t>
-  </si>
-  <si>
-    <t>117.5489156626506</t>
-  </si>
-  <si>
-    <t>119.41796901893287</t>
-  </si>
-  <si>
-    <t>121.28702237521514</t>
-  </si>
-  <si>
-    <t>123.15607573149741</t>
-  </si>
-  <si>
-    <t>125.07610327022374</t>
-  </si>
-  <si>
-    <t>126.98857907821763</t>
-  </si>
-  <si>
-    <t>128.67827882960412</t>
-  </si>
-  <si>
-    <t>130.6492805507745</t>
-  </si>
-  <si>
-    <t>132.50134251290876</t>
-  </si>
-  <si>
-    <t>134.54030981067126</t>
-  </si>
-  <si>
-    <t>136.4093631669535</t>
-  </si>
-  <si>
-    <t>138.2784165232358</t>
-  </si>
-  <si>
-    <t>140.2229871868426</t>
-  </si>
-  <si>
-    <t>142.01652323580032</t>
-  </si>
-  <si>
-    <t>143.8855765920826</t>
-  </si>
-  <si>
-    <t>145.6866643717728</t>
-  </si>
-  <si>
-    <t>147.62368330464716</t>
-  </si>
-  <si>
-    <t>148.98299483648879</t>
-  </si>
-  <si>
-    <t>467262.2142275274</t>
-  </si>
-  <si>
-    <t>598972.5549174679</t>
-  </si>
-  <si>
-    <t>762654.7743974739</t>
-  </si>
-  <si>
-    <t>993184.5647014361</t>
-  </si>
-  <si>
-    <t>1229790.837604031</t>
-  </si>
-  <si>
-    <t>1573556.6728245947</t>
-  </si>
-  <si>
-    <t>2003282.0485279604</t>
-  </si>
-  <si>
-    <t>2619795.0788830398</t>
-  </si>
-  <si>
-    <t>2627365.766641944</t>
-  </si>
-  <si>
-    <t>2303048.446974614</t>
-  </si>
-  <si>
-    <t>1631081.9704452276</t>
-  </si>
-  <si>
-    <t>1275038.5425127058</t>
-  </si>
-  <si>
-    <t>987554.1631486043</t>
-  </si>
-  <si>
-    <t>764786.8726866033</t>
-  </si>
-  <si>
-    <t>586995.7253804065</t>
-  </si>
-  <si>
-    <t>459037.7761873645</t>
-  </si>
-  <si>
-    <t>348726.66662587924</t>
-  </si>
-  <si>
-    <t>281479.52250919613</t>
-  </si>
-  <si>
-    <t>231205.0704182</t>
-  </si>
-  <si>
-    <t>188064.59624334102</t>
-  </si>
-  <si>
-    <t>153569.8573819566</t>
-  </si>
-  <si>
-    <t>131826.569553577</t>
-  </si>
-  <si>
-    <t>118803.09726563752</t>
-  </si>
-  <si>
-    <t>105278.24412994282</t>
-  </si>
-  <si>
-    <t>97026.19842785732</t>
-  </si>
-  <si>
-    <t>87695.29518557375</t>
-  </si>
-  <si>
-    <t>82118.99068479888</t>
-  </si>
-  <si>
-    <t>74818.113324993</t>
-  </si>
-  <si>
-    <t>70232.51560335408</t>
-  </si>
-  <si>
-    <t>67822.71366432044</t>
-  </si>
-  <si>
-    <t>63990.590042042815</t>
-  </si>
-  <si>
-    <t>61050.288046024594</t>
-  </si>
-  <si>
-    <t>58067.20611686789</t>
-  </si>
-  <si>
-    <t>56344.996903691026</t>
+    <t>Loss modulus (Pa)</t>
   </si>
 </sst>
 </file>
@@ -596,275 +392,275 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>36</v>
+      <c r="A2">
+        <v>94.1007917383821</v>
+      </c>
+      <c r="B2">
+        <v>467262.2142275274</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>37</v>
+      <c r="A3">
+        <v>95.37514629948365</v>
+      </c>
+      <c r="B3">
+        <v>598972.5549174679</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>38</v>
+      <c r="A4">
+        <v>96.30967297762479</v>
+      </c>
+      <c r="B4">
+        <v>762654.7743974739</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>39</v>
+      <c r="A5">
+        <v>97.41411359724613</v>
+      </c>
+      <c r="B5">
+        <v>993184.5647014361</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>40</v>
+      <c r="A6">
+        <v>98.51855421686747</v>
+      </c>
+      <c r="B6">
+        <v>1229790.837604031</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>41</v>
+      <c r="A7">
+        <v>99.53803786574871</v>
+      </c>
+      <c r="B7">
+        <v>1573556.672824595</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>42</v>
+      <c r="A8">
+        <v>100.8123924268503</v>
+      </c>
+      <c r="B8">
+        <v>2003282.04852796</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>43</v>
+      <c r="A9">
+        <v>102.4265748709122</v>
+      </c>
+      <c r="B9">
+        <v>2619795.07888304</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>44</v>
+      <c r="A10">
+        <v>104.2956282271945</v>
+      </c>
+      <c r="B10">
+        <v>2627365.766641944</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>45</v>
+      <c r="A11">
+        <v>106.1646815834768</v>
+      </c>
+      <c r="B11">
+        <v>2303048.446974614</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>46</v>
+      <c r="A12">
+        <v>107.8638209982788</v>
+      </c>
+      <c r="B12">
+        <v>1631081.970445228</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>47</v>
+      <c r="A13">
+        <v>109.5629604130809</v>
+      </c>
+      <c r="B13">
+        <v>1275038.542512706</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>48</v>
+      <c r="A14">
+        <v>111.0284681583477</v>
+      </c>
+      <c r="B14">
+        <v>987554.1631486043</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>49</v>
+      <c r="A15">
+        <v>112.5194629948365</v>
+      </c>
+      <c r="B15">
+        <v>764786.8726866033</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" t="s">
-        <v>50</v>
+      <c r="A16">
+        <v>114.2865679862306</v>
+      </c>
+      <c r="B16">
+        <v>586995.7253804065</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" t="s">
-        <v>51</v>
+      <c r="A17">
+        <v>115.8497762478485</v>
+      </c>
+      <c r="B17">
+        <v>459037.7761873645</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" t="s">
-        <v>52</v>
+      <c r="A18">
+        <v>117.5489156626506</v>
+      </c>
+      <c r="B18">
+        <v>348726.6666258792</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" t="s">
-        <v>53</v>
+      <c r="A19">
+        <v>119.4179690189329</v>
+      </c>
+      <c r="B19">
+        <v>281479.5225091961</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" t="s">
-        <v>54</v>
+      <c r="A20">
+        <v>121.2870223752151</v>
+      </c>
+      <c r="B20">
+        <v>231205.0704182</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" t="s">
-        <v>55</v>
+      <c r="A21">
+        <v>123.1560757314974</v>
+      </c>
+      <c r="B21">
+        <v>188064.596243341</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" t="s">
-        <v>56</v>
+      <c r="A22">
+        <v>125.0761032702237</v>
+      </c>
+      <c r="B22">
+        <v>153569.8573819566</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
-        <v>57</v>
+      <c r="A23">
+        <v>126.9885790782176</v>
+      </c>
+      <c r="B23">
+        <v>131826.569553577</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>58</v>
+      <c r="A24">
+        <v>128.6782788296041</v>
+      </c>
+      <c r="B24">
+        <v>118803.0972656375</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" t="s">
-        <v>59</v>
+      <c r="A25">
+        <v>130.6492805507745</v>
+      </c>
+      <c r="B25">
+        <v>105278.2441299428</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" t="s">
-        <v>60</v>
+      <c r="A26">
+        <v>132.5013425129088</v>
+      </c>
+      <c r="B26">
+        <v>97026.19842785732</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" t="s">
-        <v>61</v>
+      <c r="A27">
+        <v>134.5403098106713</v>
+      </c>
+      <c r="B27">
+        <v>87695.29518557375</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" t="s">
-        <v>62</v>
+      <c r="A28">
+        <v>136.4093631669535</v>
+      </c>
+      <c r="B28">
+        <v>82118.99068479888</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29" t="s">
-        <v>63</v>
+      <c r="A29">
+        <v>138.2784165232358</v>
+      </c>
+      <c r="B29">
+        <v>74818.113324993</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30" t="s">
-        <v>64</v>
+      <c r="A30">
+        <v>140.2229871868426</v>
+      </c>
+      <c r="B30">
+        <v>70232.51560335408</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" t="s">
-        <v>31</v>
-      </c>
-      <c r="B31" t="s">
-        <v>65</v>
+      <c r="A31">
+        <v>142.0165232358003</v>
+      </c>
+      <c r="B31">
+        <v>67822.71366432044</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" t="s">
-        <v>32</v>
-      </c>
-      <c r="B32" t="s">
-        <v>66</v>
+      <c r="A32">
+        <v>143.8855765920826</v>
+      </c>
+      <c r="B32">
+        <v>63990.59004204282</v>
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" t="s">
-        <v>33</v>
-      </c>
-      <c r="B33" t="s">
-        <v>67</v>
+      <c r="A33">
+        <v>145.6866643717728</v>
+      </c>
+      <c r="B33">
+        <v>61050.28804602459</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" t="s">
-        <v>34</v>
-      </c>
-      <c r="B34" t="s">
-        <v>68</v>
+      <c r="A34">
+        <v>147.6236833046472</v>
+      </c>
+      <c r="B34">
+        <v>58067.20611686789</v>
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" t="s">
-        <v>35</v>
-      </c>
-      <c r="B35" t="s">
-        <v>69</v>
+      <c r="A35">
+        <v>148.9829948364888</v>
+      </c>
+      <c r="B35">
+        <v>56344.99690369103</v>
       </c>
     </row>
   </sheetData>
